--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F0B5C-BDBA-2F40-9363-FDE7152DAAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12959FDE-BB7B-DD46-B29E-7727DC4A5BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="7080" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -168,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource.workflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,6 +480,10 @@
   <si>
     <t>财务管理</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.fm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -755,28 +757,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -789,6 +773,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1157,87 +1159,87 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="31" customFormat="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" s="25" customFormat="1">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" s="25" customFormat="1">
+      <c r="A3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" s="31" customFormat="1">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="32" t="s">
+    </row>
+    <row r="4" spans="1:9" s="25" customFormat="1">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="31" customFormat="1">
-      <c r="A4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="33" t="s">
+    </row>
+    <row r="5" spans="1:9" s="25" customFormat="1">
+      <c r="A5" s="15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="31" customFormat="1">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="25" customFormat="1">
+      <c r="A6" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="B6" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="25" customFormat="1">
+      <c r="A7" s="15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="31" customFormat="1">
-      <c r="A6" s="15" t="s">
+      <c r="B7" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="C7" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="31" customFormat="1">
-      <c r="A7" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="D7" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1255,11 +1257,11 @@
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="I10" s="9"/>
@@ -1304,57 +1306,57 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="C13" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="E15" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1366,15 +1368,15 @@
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="10" t="s">
@@ -1436,7 +1438,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="19" t="str">
         <f t="shared" ref="B23" si="0">A37</f>
@@ -1447,13 +1449,13 @@
         <v>2218a442-193e-4a66-8e27-89010e596720</v>
       </c>
       <c r="D23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="G23" s="17" t="str">
         <f>B13</f>
@@ -1466,7 +1468,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="19" t="str">
         <f t="shared" ref="B24" si="1">A38</f>
@@ -1477,16 +1479,16 @@
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="17">
         <v>4</v>
@@ -1495,7 +1497,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="19" t="str">
         <f t="shared" ref="B25:B31" si="2">A39</f>
@@ -1506,16 +1508,16 @@
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="H25" s="17">
         <v>4</v>
@@ -1524,7 +1526,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="19" t="str">
         <f t="shared" si="2"/>
@@ -1535,16 +1537,16 @@
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="H26" s="17">
         <v>4</v>
@@ -1553,7 +1555,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="19" t="str">
         <f t="shared" si="2"/>
@@ -1564,16 +1566,16 @@
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="17">
         <v>8</v>
@@ -1582,7 +1584,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="19" t="str">
         <f t="shared" si="2"/>
@@ -1593,16 +1595,16 @@
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="17">
         <v>8</v>
@@ -1611,7 +1613,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="19" t="str">
         <f t="shared" si="2"/>
@@ -1622,16 +1624,16 @@
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" s="17">
         <v>8</v>
@@ -1640,7 +1642,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="19" t="str">
         <f t="shared" si="2"/>
@@ -1651,16 +1653,16 @@
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="17">
         <v>8</v>
@@ -1669,7 +1671,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="19" t="str">
         <f t="shared" si="2"/>
@@ -1680,16 +1682,16 @@
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H31" s="17">
         <v>4</v>
@@ -1721,15 +1723,15 @@
       <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
@@ -1783,30 +1785,30 @@
         <v>26</v>
       </c>
       <c r="H36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G37" s="17">
         <v>1</v>
@@ -1816,22 +1818,22 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G38" s="17">
         <v>4</v>
@@ -1841,22 +1843,22 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G39" s="17">
         <v>4</v>
@@ -1866,22 +1868,22 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G40" s="17">
         <v>4</v>
@@ -1891,22 +1893,22 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G41" s="17">
         <v>8</v>
@@ -1916,22 +1918,22 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G42" s="17">
         <v>8</v>
@@ -1941,22 +1943,22 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G43" s="17">
         <v>8</v>
@@ -1966,22 +1968,22 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G44" s="17">
         <v>8</v>
@@ -1991,22 +1993,22 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G45" s="17">
         <v>4</v>

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12959FDE-BB7B-DD46-B29E-7727DC4A5BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D18D17-DCCB-3C43-B470-949DA84156B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="43080" yWindow="-2500" windowWidth="43380" windowHeight="25580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
   <si>
     <t>key</t>
   </si>
@@ -387,9 +387,6 @@
   <si>
     <t>部分结账</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9eef78da-a059-4998-8599-6f55c65091f7</t>
   </si>
   <si>
     <t>/api/settle/part/:runup</t>
@@ -483,6 +480,51 @@
   </si>
   <si>
     <t>resource.fm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.books.by.order</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>89ea6c8e-8d17-4c13-a96c-6282f1d3245b</t>
+  </si>
+  <si>
+    <t>fm.book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.books.by.order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据订单读账本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.books.by.order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9eef78da-a059-4998-8599-6f55c65091f7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2acce272-3eea-42e6-b468-2f11549555ff</t>
+  </si>
+  <si>
+    <t>/api/books/order/:orderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.books.by.order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4fe69df3-6d4c-4b96-b468-04fad25d4a3d</t>
+  </si>
+  <si>
+    <t>69a02ab1-2b15-4e73-b874-7eba697a709b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1164,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -1174,16 +1216,16 @@
     </row>
     <row r="3" spans="1:9" s="25" customFormat="1">
       <c r="A3" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>114</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="25" customFormat="1">
@@ -1191,150 +1233,145 @@
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="25" customFormat="1">
       <c r="A5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>120</v>
-      </c>
       <c r="C5" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="25" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>126</v>
-      </c>
       <c r="D6" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="25" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2"/>
+    </row>
+    <row r="8" spans="1:9" s="25" customFormat="1">
+      <c r="A8" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>40</v>
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>47</v>
+      <c r="A13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>47</v>
@@ -1344,546 +1381,561 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="15" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="7" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="10" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="12" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D23" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I23" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="15" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="19" t="str">
-        <f t="shared" ref="B23" si="0">A37</f>
+      <c r="B24" s="19" t="str">
+        <f t="shared" ref="B24" si="0">A39</f>
         <v>3b6d1dc1-1266-4a26-abca-491fc804d1df</v>
       </c>
-      <c r="C23" s="19" t="str">
-        <f>A13</f>
+      <c r="C24" s="19" t="str">
+        <f>A14</f>
         <v>2218a442-193e-4a66-8e27-89010e596720</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="17" t="str">
-        <f>B13</f>
+      <c r="G24" s="17" t="str">
+        <f>B14</f>
         <v>根据订单读账单</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="15" t="s">
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="19" t="str">
-        <f t="shared" ref="B24" si="1">A38</f>
+      <c r="B25" s="19" t="str">
+        <f t="shared" ref="B25" si="1">A40</f>
         <v>e3ba91f2-ca12-49a1-b911-f684eb21115d</v>
       </c>
-      <c r="C24" s="19" t="str">
-        <f>A$14</f>
+      <c r="C25" s="19" t="str">
+        <f>A$15</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="17">
-        <v>4</v>
-      </c>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="19" t="str">
-        <f t="shared" ref="B25:B31" si="2">A39</f>
-        <v>5cd5e851-7596-4389-85fd-32fa11b4f6e6</v>
-      </c>
-      <c r="C25" s="19" t="str">
-        <f t="shared" ref="C25:C26" si="3">A$14</f>
-        <v>033886e3-9873-4602-b821-835d4c82792b</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H25" s="17">
         <v>4</v>
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:9">
       <c r="A26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="19" t="str">
+        <f t="shared" ref="B26:B32" si="2">A41</f>
+        <v>5cd5e851-7596-4389-85fd-32fa11b4f6e6</v>
+      </c>
+      <c r="C26" s="19" t="str">
+        <f t="shared" ref="C26:C27" si="3">A$15</f>
+        <v>033886e3-9873-4602-b821-835d4c82792b</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="17">
+        <v>4</v>
+      </c>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="19" t="str">
+      <c r="B27" s="19" t="str">
         <f t="shared" si="2"/>
         <v>e7f933c8-8584-4f34-a90f-1ebef8ca2e63</v>
       </c>
-      <c r="C26" s="19" t="str">
+      <c r="C27" s="19" t="str">
         <f t="shared" si="3"/>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G27" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H27" s="17">
         <v>4</v>
       </c>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="15" t="s">
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="19" t="str">
+      <c r="B28" s="19" t="str">
         <f t="shared" si="2"/>
         <v>cdd4e0e5-90c8-4df1-8d3f-bdb8b28f25bd</v>
       </c>
-      <c r="C27" s="19" t="str">
-        <f t="shared" ref="C27" si="4">A$14</f>
+      <c r="C28" s="19" t="str">
+        <f t="shared" ref="C28" si="4">A$15</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G28" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <v>8</v>
       </c>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="15" t="s">
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="19" t="str">
+      <c r="B29" s="19" t="str">
         <f t="shared" si="2"/>
         <v>2582df50-cae7-4bb9-a020-92d916dfeadb</v>
       </c>
-      <c r="C28" s="19" t="str">
-        <f t="shared" ref="C28" si="5">A$14</f>
+      <c r="C29" s="19" t="str">
+        <f t="shared" ref="C29" si="5">A$15</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G29" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="17">
         <v>8</v>
       </c>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="15" t="s">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="19" t="str">
+      <c r="B30" s="19" t="str">
         <f t="shared" si="2"/>
         <v>4a652ed2-8f6f-4c5c-ac02-251135df04b3</v>
       </c>
-      <c r="C29" s="19" t="str">
-        <f t="shared" ref="C29" si="6">A$14</f>
+      <c r="C30" s="19" t="str">
+        <f t="shared" ref="C30" si="6">A$15</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G30" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H30" s="17">
         <v>8</v>
       </c>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="15" t="s">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="19" t="str">
+      <c r="B31" s="19" t="str">
         <f t="shared" si="2"/>
         <v>f8ce2a9e-669c-4781-a125-a695217079c5</v>
       </c>
-      <c r="C30" s="19" t="str">
-        <f t="shared" ref="C30" si="7">A$14</f>
+      <c r="C31" s="19" t="str">
+        <f t="shared" ref="C31" si="7">A$15</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G31" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H31" s="17">
         <v>8</v>
       </c>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="19" t="str">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="19" t="str">
         <f t="shared" si="2"/>
         <v>9eef78da-a059-4998-8599-6f55c65091f7</v>
       </c>
-      <c r="C31" s="19" t="str">
-        <f>A$15</f>
+      <c r="C32" s="19" t="str">
+        <f>A$16</f>
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="D32" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="17" t="s">
+      <c r="F32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="17">
         <v>4</v>
       </c>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="3"/>
-      <c r="K32" s="4"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
-      <c r="K33" s="4"/>
+      <c r="A33" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="19" t="str">
+        <f t="shared" ref="B33" si="8">A48</f>
+        <v>2acce272-3eea-42e6-b468-2f11549555ff</v>
+      </c>
+      <c r="C33" s="19" t="str">
+        <f>A$16</f>
+        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G37" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H37" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="12" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D38" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F38" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H38" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I38" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="17">
-        <v>4</v>
-      </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="15" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="15" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" s="17">
         <v>4</v>
@@ -1893,72 +1945,72 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="17">
         <v>8</v>
@@ -1968,22 +2020,22 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" s="17">
         <v>8</v>
@@ -1993,50 +2045,125 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="3"/>
-      <c r="K46" s="4"/>
+      <c r="A46" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="17">
+        <v>8</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="4"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="K47" s="4"/>
+      <c r="A47" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="17">
+        <v>4</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="3"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="4"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="K50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C21:I21"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D18D17-DCCB-3C43-B470-949DA84156B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C51886-1FCB-A745-9F25-2754A617D63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-2500" windowWidth="43380" windowHeight="25580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="43180" yWindow="-4180" windowWidth="37580" windowHeight="25020" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
   <si>
     <t>key</t>
   </si>
@@ -526,6 +526,32 @@
   <si>
     <t>69a02ab1-2b15-4e73-b874-7eba697a709b</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.preauthorize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.settle.unlock.preauthorize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁预授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0a2f099-5129-4f73-9a51-2154fd7ca0ef</t>
+  </si>
+  <si>
+    <t>/api/settle/authorize/unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.settle.unlock.preauthorize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141373fd-df41-45dc-9303-d5322e40feb8</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1514,7 +1540,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f t="shared" ref="B24" si="0">A39</f>
+        <f t="shared" ref="B24" si="0">A40</f>
         <v>3b6d1dc1-1266-4a26-abca-491fc804d1df</v>
       </c>
       <c r="C24" s="19" t="str">
@@ -1544,7 +1570,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f t="shared" ref="B25" si="1">A40</f>
+        <f t="shared" ref="B25" si="1">A41</f>
         <v>e3ba91f2-ca12-49a1-b911-f684eb21115d</v>
       </c>
       <c r="C25" s="19" t="str">
@@ -1573,7 +1599,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f t="shared" ref="B26:B32" si="2">A41</f>
+        <f t="shared" ref="B26:B32" si="2">A42</f>
         <v>5cd5e851-7596-4389-85fd-32fa11b4f6e6</v>
       </c>
       <c r="C26" s="19" t="str">
@@ -1776,7 +1802,7 @@
         <v>137</v>
       </c>
       <c r="B33" s="19" t="str">
-        <f t="shared" ref="B33" si="8">A48</f>
+        <f t="shared" ref="B33" si="8">A49</f>
         <v>2acce272-3eea-42e6-b468-2f11549555ff</v>
       </c>
       <c r="C33" s="19" t="str">
@@ -1801,13 +1827,33 @@
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="3"/>
-      <c r="K34" s="4"/>
+      <c r="A34" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="19" t="str">
+        <f t="shared" ref="B34" si="9">A50</f>
+        <v>d0a2f099-5129-4f73-9a51-2154fd7ca0ef</v>
+      </c>
+      <c r="C34" s="19" t="str">
+        <f>A$16</f>
+        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="17">
+        <v>8</v>
+      </c>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="4"/>
@@ -1819,117 +1865,101 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C37" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="10" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G38" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H38" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I38" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="12" t="s">
+    <row r="39" spans="1:11">
+      <c r="A39" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D39" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H39" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I39" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="17">
-        <v>1</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>47</v>
@@ -1938,23 +1968,23 @@
         <v>126</v>
       </c>
       <c r="G40" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>47</v>
@@ -1970,16 +2000,16 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>47</v>
@@ -1995,16 +2025,16 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>47</v>
@@ -2013,23 +2043,23 @@
         <v>126</v>
       </c>
       <c r="G43" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>47</v>
@@ -2045,16 +2075,16 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>47</v>
@@ -2070,16 +2100,16 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>47</v>
@@ -2095,74 +2125,116 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="15" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G47" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G48" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="3"/>
-      <c r="K49" s="4"/>
+      <c r="A49" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="4"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="17">
+        <v>8</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
       <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="4"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="K51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C37:I37"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C51886-1FCB-A745-9F25-2754A617D63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CDDD5-3B19-8442-9712-7051489B5D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43180" yWindow="-4180" windowWidth="37580" windowHeight="25020" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="56580" yWindow="-6340" windowWidth="42500" windowHeight="27140" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="158">
   <si>
     <t>key</t>
   </si>
@@ -552,6 +552,50 @@
   </si>
   <si>
     <t>141373fd-df41-45dc-9303-d5322e40feb8</t>
+  </si>
+  <si>
+    <t>res.settle.book.finalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存账本结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0ef5b968-2b3b-47c1-a810-617b5ab10122</t>
+  </si>
+  <si>
+    <t>/api/settle/book/finalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.settle.book.finalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>409329e8-cc96-4d45-ac45-0c9558b0b92a</t>
+  </si>
+  <si>
+    <t>res.settle.finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全结账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18b3ed7e-4789-45e9-a0ae-6ff9efe7d97b</t>
+  </si>
+  <si>
+    <t>act.settle.finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>627e4350-5729-4b2a-9ccc-77b046b6c2cd</t>
+  </si>
+  <si>
+    <t>/api/settle/finish/:runup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1201,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1540,7 +1584,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f t="shared" ref="B24" si="0">A40</f>
+        <f t="shared" ref="B24" si="0">A43</f>
         <v>3b6d1dc1-1266-4a26-abca-491fc804d1df</v>
       </c>
       <c r="C24" s="19" t="str">
@@ -1570,7 +1614,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f t="shared" ref="B25" si="1">A41</f>
+        <f t="shared" ref="B25" si="1">A44</f>
         <v>e3ba91f2-ca12-49a1-b911-f684eb21115d</v>
       </c>
       <c r="C25" s="19" t="str">
@@ -1599,7 +1643,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f t="shared" ref="B26:B32" si="2">A42</f>
+        <f t="shared" ref="B26:B32" si="2">A45</f>
         <v>5cd5e851-7596-4389-85fd-32fa11b4f6e6</v>
       </c>
       <c r="C26" s="19" t="str">
@@ -1802,7 +1846,7 @@
         <v>137</v>
       </c>
       <c r="B33" s="19" t="str">
-        <f t="shared" ref="B33" si="8">A49</f>
+        <f t="shared" ref="B33" si="8">A52</f>
         <v>2acce272-3eea-42e6-b468-2f11549555ff</v>
       </c>
       <c r="C33" s="19" t="str">
@@ -1831,7 +1875,7 @@
         <v>145</v>
       </c>
       <c r="B34" s="19" t="str">
-        <f t="shared" ref="B34" si="9">A50</f>
+        <f t="shared" ref="B34" si="9">A53</f>
         <v>d0a2f099-5129-4f73-9a51-2154fd7ca0ef</v>
       </c>
       <c r="C34" s="19" t="str">
@@ -1856,185 +1900,178 @@
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="3"/>
-      <c r="K35" s="4"/>
+      <c r="A35" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="19" t="str">
+        <f t="shared" ref="B35" si="10">A54</f>
+        <v>0ef5b968-2b3b-47c1-a810-617b5ab10122</v>
+      </c>
+      <c r="C35" s="19" t="str">
+        <f>A$16</f>
+        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="17">
+        <v>8</v>
+      </c>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="3"/>
+      <c r="A36" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="19" t="str">
+        <f t="shared" ref="B36" si="11">A55</f>
+        <v>18b3ed7e-4789-45e9-a0ae-6ff9efe7d97b</v>
+      </c>
+      <c r="C36" s="19" t="str">
+        <f>A$16</f>
+        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="17">
+        <v>4</v>
+      </c>
+      <c r="I36" s="17"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="3"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C40" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="10" t="s">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G41" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H41" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I41" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="12" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D42" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F42" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I42" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="17">
-        <v>1</v>
-      </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="17">
-        <v>4</v>
-      </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="17">
-        <v>4</v>
-      </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="15" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>47</v>
@@ -2043,23 +2080,23 @@
         <v>126</v>
       </c>
       <c r="G43" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>47</v>
@@ -2068,23 +2105,23 @@
         <v>126</v>
       </c>
       <c r="G44" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>47</v>
@@ -2093,23 +2130,23 @@
         <v>126</v>
       </c>
       <c r="G45" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="15" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>47</v>
@@ -2118,23 +2155,23 @@
         <v>126</v>
       </c>
       <c r="G46" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="15" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>47</v>
@@ -2150,69 +2187,69 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="15" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G48" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="15" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G49" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="15" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>126</v>
@@ -2222,19 +2259,139 @@
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
-      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="4"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="K51" s="4"/>
+      <c r="A51" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="17">
+        <v>4</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="17">
+        <v>8</v>
+      </c>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="17">
+        <v>8</v>
+      </c>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="17">
+        <v>4</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="K55" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C40:I40"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CDDD5-3B19-8442-9712-7051489B5D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515232D0-6B74-874D-8CE7-3A38A1D47ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56580" yWindow="-6340" windowWidth="42500" windowHeight="27140" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="152">
   <si>
     <t>key</t>
   </si>
@@ -574,28 +574,6 @@
   </si>
   <si>
     <t>409329e8-cc96-4d45-ac45-0c9558b0b92a</t>
-  </si>
-  <si>
-    <t>res.settle.finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全结账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18b3ed7e-4789-45e9-a0ae-6ff9efe7d97b</t>
-  </si>
-  <si>
-    <t>act.settle.finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>627e4350-5729-4b2a-9ccc-77b046b6c2cd</t>
-  </si>
-  <si>
-    <t>/api/settle/finish/:runup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1245,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1584,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f t="shared" ref="B24" si="0">A43</f>
+        <f t="shared" ref="B24" si="0">A42</f>
         <v>3b6d1dc1-1266-4a26-abca-491fc804d1df</v>
       </c>
       <c r="C24" s="19" t="str">
@@ -1614,7 +1592,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f t="shared" ref="B25" si="1">A44</f>
+        <f t="shared" ref="B25" si="1">A43</f>
         <v>e3ba91f2-ca12-49a1-b911-f684eb21115d</v>
       </c>
       <c r="C25" s="19" t="str">
@@ -1643,7 +1621,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f t="shared" ref="B26:B32" si="2">A45</f>
+        <f t="shared" ref="B26:B32" si="2">A44</f>
         <v>5cd5e851-7596-4389-85fd-32fa11b4f6e6</v>
       </c>
       <c r="C26" s="19" t="str">
@@ -1846,7 +1824,7 @@
         <v>137</v>
       </c>
       <c r="B33" s="19" t="str">
-        <f t="shared" ref="B33" si="8">A52</f>
+        <f t="shared" ref="B33" si="8">A51</f>
         <v>2acce272-3eea-42e6-b468-2f11549555ff</v>
       </c>
       <c r="C33" s="19" t="str">
@@ -1875,7 +1853,7 @@
         <v>145</v>
       </c>
       <c r="B34" s="19" t="str">
-        <f t="shared" ref="B34" si="9">A53</f>
+        <f t="shared" ref="B34" si="9">A52</f>
         <v>d0a2f099-5129-4f73-9a51-2154fd7ca0ef</v>
       </c>
       <c r="C34" s="19" t="str">
@@ -1904,7 +1882,7 @@
         <v>151</v>
       </c>
       <c r="B35" s="19" t="str">
-        <f t="shared" ref="B35" si="10">A54</f>
+        <f t="shared" ref="B35" si="10">A53</f>
         <v>0ef5b968-2b3b-47c1-a810-617b5ab10122</v>
       </c>
       <c r="C35" s="19" t="str">
@@ -1929,33 +1907,12 @@
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="19" t="str">
-        <f t="shared" ref="B36" si="11">A55</f>
-        <v>18b3ed7e-4789-45e9-a0ae-6ff9efe7d97b</v>
-      </c>
-      <c r="C36" s="19" t="str">
-        <f>A$16</f>
-        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="17">
-        <v>4</v>
-      </c>
-      <c r="I36" s="17"/>
+      <c r="A36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11">
@@ -1977,101 +1934,117 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="3"/>
-      <c r="K39" s="4"/>
+      <c r="A39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="17">
         <v>1</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="15" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>47</v>
@@ -2080,23 +2053,23 @@
         <v>126</v>
       </c>
       <c r="G43" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>47</v>
@@ -2112,16 +2085,16 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>47</v>
@@ -2137,16 +2110,16 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>47</v>
@@ -2155,23 +2128,23 @@
         <v>126</v>
       </c>
       <c r="G46" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>47</v>
@@ -2187,16 +2160,16 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="15" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>47</v>
@@ -2212,16 +2185,16 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>47</v>
@@ -2237,94 +2210,95 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="15" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G50" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G51" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="15" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>126</v>
       </c>
       <c r="G52" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
+      <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="15" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>126</v>
@@ -2336,62 +2310,10 @@
       <c r="I53" s="17"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="17">
-        <v>8</v>
-      </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="17">
-        <v>4</v>
-      </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="K55" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C39:I39"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515232D0-6B74-874D-8CE7-3A38A1D47ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D52776-6E64-3A44-9D21-D17C83647900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56580" yWindow="-6340" windowWidth="42500" windowHeight="27140" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -385,22 +385,6 @@
     <t>f734fa2a-160c-4f5d-89c5-99be988ab2d7</t>
   </si>
   <si>
-    <t>部分结账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/settle/part/:runup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.settle.part.runup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.settle.part.runup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7958b04d-ab7d-4dac-a3d6-54e34a05e655</t>
   </si>
   <si>
@@ -574,6 +558,22 @@
   </si>
   <si>
     <t>409329e8-cc96-4d45-ac45-0c9558b0b92a</t>
+  </si>
+  <si>
+    <t>/api/settle/create/:runup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.settle.create.runup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.settle.create.runup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="3" spans="1:9" s="25" customFormat="1">
       <c r="A3" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="25" customFormat="1">
@@ -1281,69 +1281,69 @@
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="25" customFormat="1">
       <c r="A5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="25" customFormat="1">
       <c r="A6" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>124</v>
-      </c>
       <c r="C6" s="29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="25" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>125</v>
-      </c>
       <c r="D7" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="25" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1448,38 +1448,38 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1792,7 +1792,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B32" s="19" t="str">
         <f t="shared" si="2"/>
@@ -1803,16 +1803,16 @@
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="H32" s="17">
         <v>4</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B33" s="19" t="str">
         <f t="shared" ref="B33" si="8">A51</f>
@@ -1832,16 +1832,16 @@
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H33" s="17">
         <v>1</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B34" s="19" t="str">
         <f t="shared" ref="B34" si="9">A52</f>
@@ -1861,16 +1861,16 @@
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H34" s="17">
         <v>8</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B35" s="19" t="str">
         <f t="shared" ref="B35" si="10">A53</f>
@@ -1890,16 +1890,16 @@
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H35" s="17">
         <v>8</v>
@@ -2025,7 +2025,7 @@
         <v>47</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G42" s="17">
         <v>1</v>
@@ -2050,7 +2050,7 @@
         <v>47</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G43" s="17">
         <v>4</v>
@@ -2075,7 +2075,7 @@
         <v>47</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G44" s="17">
         <v>4</v>
@@ -2100,7 +2100,7 @@
         <v>47</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G45" s="17">
         <v>4</v>
@@ -2125,7 +2125,7 @@
         <v>47</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G46" s="17">
         <v>8</v>
@@ -2150,7 +2150,7 @@
         <v>47</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G47" s="17">
         <v>8</v>
@@ -2175,7 +2175,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G48" s="17">
         <v>8</v>
@@ -2200,7 +2200,7 @@
         <v>47</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G49" s="17">
         <v>8</v>
@@ -2210,22 +2210,22 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G50" s="17">
         <v>4</v>
@@ -2235,22 +2235,22 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G51" s="17">
         <v>1</v>
@@ -2260,22 +2260,22 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G52" s="17">
         <v>8</v>
@@ -2286,22 +2286,22 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G53" s="17">
         <v>8</v>

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D52776-6E64-3A44-9D21-D17C83647900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02863714-E4A3-F84F-956D-2C72CE417616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56580" yWindow="-6340" windowWidth="42500" windowHeight="27140" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="41720" yWindow="-9380" windowWidth="38480" windowHeight="26980" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
   <si>
     <t>key</t>
   </si>
@@ -573,6 +573,72 @@
   </si>
   <si>
     <t>res.settle.create.runup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.payment.finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51541af0-7541-4abb-8208-0425ecc1dee8</t>
+  </si>
+  <si>
+    <t>82214cc4-54ae-4a06-9fe5-b5f8aea3db28</t>
+  </si>
+  <si>
+    <t>res.payment.create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d7aa419b-737e-4d21-8b0f-4adbd95820ee</t>
+  </si>
+  <si>
+    <t>bbb0a9b5-bb93-4d52-824e-e3082a35b48d</t>
+  </si>
+  <si>
+    <t>res.payment.cascade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/payment/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/payment/cascade/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.payment.create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.payment.cascade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6e97e270-75c6-4766-b48e-a46942eba856</t>
+  </si>
+  <si>
+    <t>8e6a788b-edb3-4579-81f8-aa7ddaa6bf97</t>
+  </si>
+  <si>
+    <t>退付款创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退付款删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款/付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1346,99 +1412,94 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:9" s="25" customFormat="1">
+      <c r="A9" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>40</v>
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>47</v>
+      <c r="A14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>47</v>
@@ -1448,678 +1509,672 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="15" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I24" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="12" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I25" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="19" t="str">
-        <f t="shared" ref="B24" si="0">A42</f>
-        <v>3b6d1dc1-1266-4a26-abca-491fc804d1df</v>
-      </c>
-      <c r="C24" s="19" t="str">
-        <f>A14</f>
-        <v>2218a442-193e-4a66-8e27-89010e596720</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="17" t="str">
-        <f>B14</f>
-        <v>根据订单读账单</v>
-      </c>
-      <c r="H24" s="17">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="19" t="str">
-        <f t="shared" ref="B25" si="1">A43</f>
-        <v>e3ba91f2-ca12-49a1-b911-f684eb21115d</v>
-      </c>
-      <c r="C25" s="19" t="str">
-        <f>A$15</f>
-        <v>033886e3-9873-4602-b821-835d4c82792b</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="17">
-        <v>4</v>
-      </c>
-      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="15" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f t="shared" ref="B26:B32" si="2">A44</f>
-        <v>5cd5e851-7596-4389-85fd-32fa11b4f6e6</v>
+        <f t="shared" ref="B26" si="0">A46</f>
+        <v>3b6d1dc1-1266-4a26-abca-491fc804d1df</v>
       </c>
       <c r="C26" s="19" t="str">
-        <f t="shared" ref="C26:C27" si="3">A$15</f>
-        <v>033886e3-9873-4602-b821-835d4c82792b</v>
+        <f>A15</f>
+        <v>2218a442-193e-4a66-8e27-89010e596720</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="G26" s="17" t="str">
+        <f>B15</f>
+        <v>根据订单读账单</v>
       </c>
       <c r="H26" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="19" t="str">
+        <f t="shared" ref="B27" si="1">A47</f>
+        <v>e3ba91f2-ca12-49a1-b911-f684eb21115d</v>
+      </c>
+      <c r="C27" s="19" t="str">
+        <f>A$16</f>
+        <v>033886e3-9873-4602-b821-835d4c82792b</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="17">
+        <v>4</v>
+      </c>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="19" t="str">
+        <f t="shared" ref="B28:B34" si="2">A48</f>
+        <v>5cd5e851-7596-4389-85fd-32fa11b4f6e6</v>
+      </c>
+      <c r="C28" s="19" t="str">
+        <f t="shared" ref="C28:C29" si="3">A$16</f>
+        <v>033886e3-9873-4602-b821-835d4c82792b</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="17">
+        <v>4</v>
+      </c>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="19" t="str">
+      <c r="B29" s="19" t="str">
         <f t="shared" si="2"/>
         <v>e7f933c8-8584-4f34-a90f-1ebef8ca2e63</v>
       </c>
-      <c r="C27" s="19" t="str">
+      <c r="C29" s="19" t="str">
         <f t="shared" si="3"/>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H29" s="17">
         <v>4</v>
       </c>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="15" t="s">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="19" t="str">
+      <c r="B30" s="19" t="str">
         <f t="shared" si="2"/>
         <v>cdd4e0e5-90c8-4df1-8d3f-bdb8b28f25bd</v>
       </c>
-      <c r="C28" s="19" t="str">
-        <f t="shared" ref="C28" si="4">A$15</f>
+      <c r="C30" s="19" t="str">
+        <f t="shared" ref="C30" si="4">A$16</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G30" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H30" s="17">
         <v>8</v>
       </c>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="15" t="s">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="19" t="str">
+      <c r="B31" s="19" t="str">
         <f t="shared" si="2"/>
         <v>2582df50-cae7-4bb9-a020-92d916dfeadb</v>
       </c>
-      <c r="C29" s="19" t="str">
-        <f t="shared" ref="C29" si="5">A$15</f>
+      <c r="C31" s="19" t="str">
+        <f t="shared" ref="C31" si="5">A$16</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H31" s="17">
         <v>8</v>
       </c>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="15" t="s">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="19" t="str">
+      <c r="B32" s="19" t="str">
         <f t="shared" si="2"/>
         <v>4a652ed2-8f6f-4c5c-ac02-251135df04b3</v>
       </c>
-      <c r="C30" s="19" t="str">
-        <f t="shared" ref="C30" si="6">A$15</f>
+      <c r="C32" s="19" t="str">
+        <f t="shared" ref="C32" si="6">A$16</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G32" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H32" s="17">
         <v>8</v>
       </c>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="15" t="s">
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="19" t="str">
+      <c r="B33" s="19" t="str">
         <f t="shared" si="2"/>
         <v>f8ce2a9e-669c-4781-a125-a695217079c5</v>
       </c>
-      <c r="C31" s="19" t="str">
-        <f t="shared" ref="C31" si="7">A$15</f>
+      <c r="C33" s="19" t="str">
+        <f t="shared" ref="C33" si="7">A$16</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E33" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F33" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G33" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H33" s="17">
         <v>8</v>
       </c>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="15" t="s">
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="19" t="str">
+      <c r="B34" s="19" t="str">
         <f t="shared" si="2"/>
         <v>9eef78da-a059-4998-8599-6f55c65091f7</v>
       </c>
-      <c r="C32" s="19" t="str">
-        <f>A$16</f>
+      <c r="C34" s="19" t="str">
+        <f>A$17</f>
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F34" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G34" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H34" s="17">
         <v>4</v>
-      </c>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="19" t="str">
-        <f t="shared" ref="B33" si="8">A51</f>
-        <v>2acce272-3eea-42e6-b468-2f11549555ff</v>
-      </c>
-      <c r="C33" s="19" t="str">
-        <f>A$16</f>
-        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="17">
-        <v>1</v>
-      </c>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="19" t="str">
-        <f t="shared" ref="B34" si="9">A52</f>
-        <v>d0a2f099-5129-4f73-9a51-2154fd7ca0ef</v>
-      </c>
-      <c r="C34" s="19" t="str">
-        <f>A$16</f>
-        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" s="17">
-        <v>8</v>
       </c>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="19" t="str">
+        <f t="shared" ref="B35" si="8">A55</f>
+        <v>2acce272-3eea-42e6-b468-2f11549555ff</v>
+      </c>
+      <c r="C35" s="19" t="str">
+        <f>A$17</f>
+        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="17">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="19" t="str">
+        <f t="shared" ref="B36" si="9">A56</f>
+        <v>d0a2f099-5129-4f73-9a51-2154fd7ca0ef</v>
+      </c>
+      <c r="C36" s="19" t="str">
+        <f>A$17</f>
+        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="17">
+        <v>8</v>
+      </c>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="19" t="str">
-        <f t="shared" ref="B35" si="10">A53</f>
+      <c r="B37" s="19" t="str">
+        <f t="shared" ref="B37" si="10">A57</f>
         <v>0ef5b968-2b3b-47c1-a810-617b5ab10122</v>
       </c>
-      <c r="C35" s="19" t="str">
-        <f>A$16</f>
+      <c r="C37" s="19" t="str">
+        <f>A$17</f>
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D37" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F37" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G37" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H37" s="17">
         <v>8</v>
       </c>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="3"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="3"/>
-      <c r="K37" s="4"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="3"/>
-      <c r="K38" s="4"/>
+      <c r="A38" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="19" t="str">
+        <f>A58</f>
+        <v>d7aa419b-737e-4d21-8b0f-4adbd95820ee</v>
+      </c>
+      <c r="C38" s="19" t="str">
+        <f>A$19</f>
+        <v>51541af0-7541-4abb-8208-0425ecc1dee8</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="17">
+        <v>4</v>
+      </c>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="19" t="str">
+        <f t="shared" ref="B38:B39" si="11">A59</f>
+        <v>bbb0a9b5-bb93-4d52-824e-e3082a35b48d</v>
+      </c>
+      <c r="C39" s="19" t="str">
+        <f>A$19</f>
+        <v>51541af0-7541-4abb-8208-0425ecc1dee8</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="17">
+        <v>12</v>
+      </c>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="3"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C43" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G44" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H44" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I44" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="12" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E45" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F45" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I45" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="17">
-        <v>1</v>
-      </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="17">
-        <v>4</v>
-      </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="17">
-        <v>4</v>
-      </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="17">
-        <v>4</v>
-      </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="15" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>47</v>
@@ -2128,23 +2183,23 @@
         <v>122</v>
       </c>
       <c r="G46" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="15" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>47</v>
@@ -2153,23 +2208,23 @@
         <v>122</v>
       </c>
       <c r="G47" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="15" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>47</v>
@@ -2178,23 +2233,23 @@
         <v>122</v>
       </c>
       <c r="G48" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="15" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>47</v>
@@ -2203,76 +2258,76 @@
         <v>122</v>
       </c>
       <c r="G49" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="15" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>122</v>
       </c>
       <c r="G50" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="15" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>122</v>
       </c>
       <c r="G51" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="15" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>122</v>
@@ -2282,23 +2337,22 @@
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
-      <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="15" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>122</v>
@@ -2308,13 +2362,164 @@
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
-      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="17">
+        <v>4</v>
+      </c>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="17">
+        <v>1</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="17">
+        <v>8</v>
+      </c>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="17">
+        <v>8</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="17">
+        <v>4</v>
+      </c>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="17">
+        <v>12</v>
+      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C23:I23"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.bill.process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02863714-E4A3-F84F-956D-2C72CE417616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D0461-C28E-C84F-A0EC-D7CC03F64BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41720" yWindow="-9380" windowWidth="38480" windowHeight="26980" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="41720" yWindow="-9380" windowWidth="43000" windowHeight="26980" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="182">
   <si>
     <t>key</t>
   </si>
@@ -201,10 +201,6 @@
   </si>
   <si>
     <t>00264daa-299a-416b-bcbd-8dc468c9d13b</t>
-  </si>
-  <si>
-    <t>perm.bills.by.order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>act.bills.by.order</t>
@@ -438,10 +434,6 @@
     <t>29620d7b-fe6f-4a4d-a485-55b7238b06f9</t>
   </si>
   <si>
-    <t>perm.bills.by.order</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>97cd4bb9-66f2-4f9a-ae82-314a05ba7ea9</t>
   </si>
   <si>
@@ -639,6 +631,58 @@
   </si>
   <si>
     <t>退款/付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.bills.search.full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.bills.by.key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取单个账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>543c5fad-ad2a-4912-85b0-8f7a75bd2887</t>
+  </si>
+  <si>
+    <t>c2d46a6e-9009-4990-a7e3-813c5a6ba634</t>
+  </si>
+  <si>
+    <t>d08fb16f-352d-4965-85c4-b6766cfa1d59</t>
+  </si>
+  <si>
+    <t>eedd95be-5658-4730-818e-514e9a41c854</t>
+  </si>
+  <si>
+    <t>读取账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.bills.fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.bills.by.key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.bills.search.full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/bills/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/bills/search/full</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1289,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1320,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
@@ -1330,16 +1374,16 @@
     </row>
     <row r="3" spans="1:9" s="25" customFormat="1">
       <c r="A3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="25" customFormat="1">
@@ -1347,83 +1391,83 @@
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="25" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="25" customFormat="1">
       <c r="A6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="25" customFormat="1">
       <c r="A7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>121</v>
-      </c>
       <c r="D7" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="25" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="25" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1493,13 +1537,13 @@
         <v>48</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>47</v>
@@ -1509,16 +1553,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>47</v>
@@ -1528,55 +1572,55 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>105</v>
-      </c>
       <c r="E17" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1659,25 +1703,24 @@
         <v>51</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f t="shared" ref="B26" si="0">A46</f>
+        <f t="shared" ref="B26:B28" si="0">A48</f>
         <v>3b6d1dc1-1266-4a26-abca-491fc804d1df</v>
       </c>
       <c r="C26" s="19" t="str">
-        <f>A15</f>
+        <f>A$15</f>
         <v>2218a442-193e-4a66-8e27-89010e596720</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="17" t="str">
-        <f>B15</f>
-        <v>根据订单读账单</v>
+        <v>53</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="H26" s="17">
         <v>1</v>
@@ -1686,85 +1729,85 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="15" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="B27" s="19" t="str">
-        <f t="shared" ref="B27" si="1">A47</f>
+        <f t="shared" si="0"/>
+        <v>543c5fad-ad2a-4912-85b0-8f7a75bd2887</v>
+      </c>
+      <c r="C27" s="19" t="str">
+        <f t="shared" ref="C27:C28" si="1">A$15</f>
+        <v>2218a442-193e-4a66-8e27-89010e596720</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>c2d46a6e-9009-4990-a7e3-813c5a6ba634</v>
+      </c>
+      <c r="C28" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>2218a442-193e-4a66-8e27-89010e596720</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="19" t="str">
+        <f t="shared" ref="B29" si="2">A51</f>
         <v>e3ba91f2-ca12-49a1-b911-f684eb21115d</v>
       </c>
-      <c r="C27" s="19" t="str">
+      <c r="C29" s="19" t="str">
         <f>A$16</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="17">
-        <v>4</v>
-      </c>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="19" t="str">
-        <f t="shared" ref="B28:B34" si="2">A48</f>
-        <v>5cd5e851-7596-4389-85fd-32fa11b4f6e6</v>
-      </c>
-      <c r="C28" s="19" t="str">
-        <f t="shared" ref="C28:C29" si="3">A$16</f>
-        <v>033886e3-9873-4602-b821-835d4c82792b</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="17">
-        <v>4</v>
-      </c>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>e7f933c8-8584-4f34-a90f-1ebef8ca2e63</v>
-      </c>
-      <c r="C29" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>033886e3-9873-4602-b821-835d4c82792b</v>
-      </c>
       <c r="D29" s="18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H29" s="17">
         <v>4</v>
@@ -1773,76 +1816,76 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="15" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B30" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>cdd4e0e5-90c8-4df1-8d3f-bdb8b28f25bd</v>
+        <f t="shared" ref="B30:B36" si="3">A52</f>
+        <v>5cd5e851-7596-4389-85fd-32fa11b4f6e6</v>
       </c>
       <c r="C30" s="19" t="str">
-        <f t="shared" ref="C30" si="4">A$16</f>
+        <f t="shared" ref="C30:C31" si="4">A$16</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H30" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B31" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>2582df50-cae7-4bb9-a020-92d916dfeadb</v>
+        <f t="shared" si="3"/>
+        <v>e7f933c8-8584-4f34-a90f-1ebef8ca2e63</v>
       </c>
       <c r="C31" s="19" t="str">
-        <f t="shared" ref="C31" si="5">A$16</f>
+        <f t="shared" si="4"/>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H31" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="15" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B32" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>4a652ed2-8f6f-4c5c-ac02-251135df04b3</v>
+        <f t="shared" si="3"/>
+        <v>cdd4e0e5-90c8-4df1-8d3f-bdb8b28f25bd</v>
       </c>
       <c r="C32" s="19" t="str">
-        <f t="shared" ref="C32" si="6">A$16</f>
+        <f t="shared" ref="C32" si="5">A$16</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>43</v>
@@ -1851,7 +1894,7 @@
         <v>90</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H32" s="17">
         <v>8</v>
@@ -1860,27 +1903,27 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B33" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>f8ce2a9e-669c-4781-a125-a695217079c5</v>
+        <f t="shared" si="3"/>
+        <v>2582df50-cae7-4bb9-a020-92d916dfeadb</v>
       </c>
       <c r="C33" s="19" t="str">
-        <f t="shared" ref="C33" si="7">A$16</f>
+        <f t="shared" ref="C33" si="6">A$16</f>
         <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H33" s="17">
         <v>8</v>
@@ -1889,195 +1932,235 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B34" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>9eef78da-a059-4998-8599-6f55c65091f7</v>
+        <f t="shared" si="3"/>
+        <v>4a652ed2-8f6f-4c5c-ac02-251135df04b3</v>
       </c>
       <c r="C34" s="19" t="str">
-        <f>A$17</f>
-        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+        <f t="shared" ref="C34" si="7">A$16</f>
+        <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="H34" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="15" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B35" s="19" t="str">
-        <f t="shared" ref="B35" si="8">A55</f>
-        <v>2acce272-3eea-42e6-b468-2f11549555ff</v>
+        <f t="shared" si="3"/>
+        <v>f8ce2a9e-669c-4781-a125-a695217079c5</v>
       </c>
       <c r="C35" s="19" t="str">
-        <f>A$17</f>
-        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+        <f t="shared" ref="C35" si="8">A$16</f>
+        <v>033886e3-9873-4602-b821-835d4c82792b</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H35" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="15" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B36" s="19" t="str">
-        <f t="shared" ref="B36" si="9">A56</f>
-        <v>d0a2f099-5129-4f73-9a51-2154fd7ca0ef</v>
+        <f t="shared" si="3"/>
+        <v>9eef78da-a059-4998-8599-6f55c65091f7</v>
       </c>
       <c r="C36" s="19" t="str">
         <f>A$17</f>
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H36" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B37" s="19" t="str">
-        <f t="shared" ref="B37" si="10">A57</f>
-        <v>0ef5b968-2b3b-47c1-a810-617b5ab10122</v>
+        <f t="shared" ref="B37" si="9">A59</f>
+        <v>2acce272-3eea-42e6-b468-2f11549555ff</v>
       </c>
       <c r="C37" s="19" t="str">
         <f>A$17</f>
         <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H37" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="15" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B38" s="19" t="str">
-        <f>A58</f>
+        <f t="shared" ref="B38" si="10">A60</f>
+        <v>d0a2f099-5129-4f73-9a51-2154fd7ca0ef</v>
+      </c>
+      <c r="C38" s="19" t="str">
+        <f>A$17</f>
+        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="17">
+        <v>8</v>
+      </c>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="19" t="str">
+        <f t="shared" ref="B39" si="11">A61</f>
+        <v>0ef5b968-2b3b-47c1-a810-617b5ab10122</v>
+      </c>
+      <c r="C39" s="19" t="str">
+        <f>A$17</f>
+        <v>40f9ae68-f5f2-4414-b424-a0345a62f1ea</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="17">
+        <v>8</v>
+      </c>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="19" t="str">
+        <f>A62</f>
         <v>d7aa419b-737e-4d21-8b0f-4adbd95820ee</v>
       </c>
-      <c r="C38" s="19" t="str">
+      <c r="C40" s="19" t="str">
         <f>A$19</f>
         <v>51541af0-7541-4abb-8208-0425ecc1dee8</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="17" t="s">
+      <c r="D40" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="H38" s="17">
+      <c r="F40" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="17">
         <v>4</v>
       </c>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="19" t="str">
-        <f t="shared" ref="B38:B39" si="11">A59</f>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="19" t="str">
+        <f t="shared" ref="B41" si="12">A63</f>
         <v>bbb0a9b5-bb93-4d52-824e-e3082a35b48d</v>
       </c>
-      <c r="C39" s="19" t="str">
+      <c r="C41" s="19" t="str">
         <f>A$19</f>
         <v>51541af0-7541-4abb-8208-0425ecc1dee8</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="17" t="s">
+      <c r="D41" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" s="17">
+      <c r="E41" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="17">
         <v>12</v>
       </c>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="3"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="3"/>
-      <c r="K41" s="4"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="4"/>
@@ -2089,400 +2172,366 @@
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="3"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="3"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C45" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="10" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G46" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H46" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I46" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="12" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D47" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E47" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F47" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G47" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H47" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I47" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G46" s="17">
-        <v>1</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="17">
-        <v>4</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="15" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G48" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="15" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G49" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="15" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G50" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G51" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="15" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G52" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="15" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G53" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="15" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G54" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="15" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G55" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="15" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G56" s="17">
         <v>8</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="15" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G57" s="17">
         <v>8</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="15" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G58" s="17">
         <v>4</v>
@@ -2492,33 +2541,135 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="15" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G59" s="17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" s="17">
+        <v>8</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="17">
+        <v>8</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="17">
+        <v>4</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" s="17">
+        <v>12</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C45:I45"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
